--- a/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_T55.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_T55.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Q0</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>2020-02-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-05-15 00:00:00_diff</t>
   </si>
   <si>
     <t>2020-08-25 00:00:00_diff</t>
@@ -464,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,34 +536,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>16.33095765</v>
+        <v>-9.678192681000001</v>
       </c>
       <c r="C3">
-        <v>-5.728182713040393</v>
+        <v>16.59095765</v>
       </c>
       <c r="D3">
-        <v>1.01610233549307</v>
+        <v>-4.680304</v>
       </c>
       <c r="E3">
-        <v>2.631937868000003</v>
+        <v>1.859367</v>
       </c>
       <c r="F3">
-        <v>-1.133092000000014</v>
+        <v>2.906937868</v>
       </c>
       <c r="G3">
-        <v>-1.301848722283496</v>
+        <v>-1.133092</v>
       </c>
       <c r="H3">
-        <v>0.7364377923702177</v>
-      </c>
-      <c r="I3">
-        <v>0.154513942900791</v>
-      </c>
-      <c r="J3">
-        <v>0.2508636468011953</v>
-      </c>
-      <c r="K3">
-        <v>-0.008877503334731363</v>
+        <v>-1.294266</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -568,31 +562,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-8.880304000000006</v>
+        <v>16.33095765</v>
       </c>
       <c r="C4">
-        <v>0.2478109773270884</v>
+        <v>-5.728182713040393</v>
       </c>
       <c r="D4">
-        <v>4.406937868000009</v>
+        <v>1.01610233549307</v>
       </c>
       <c r="E4">
-        <v>-0.9270503073600147</v>
+        <v>2.631937868000003</v>
       </c>
       <c r="F4">
-        <v>-1.094513995824941</v>
+        <v>-1.133092000000014</v>
       </c>
       <c r="G4">
-        <v>0.8111224016758237</v>
+        <v>-1.301848722283496</v>
       </c>
       <c r="H4">
-        <v>0.2042029355184761</v>
+        <v>0.7364377923702177</v>
       </c>
       <c r="I4">
-        <v>0.2916775895284789</v>
+        <v>0.154513942900791</v>
       </c>
       <c r="J4">
-        <v>0.02378856251721495</v>
+        <v>0.2508636468011953</v>
+      </c>
+      <c r="K4">
+        <v>-0.008877503334731363</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -600,28 +597,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1.050112999999999</v>
+        <v>-8.880304000000006</v>
       </c>
       <c r="C5">
-        <v>3.863347868000014</v>
+        <v>0.2478109773270884</v>
       </c>
       <c r="D5">
-        <v>0.21590799999999</v>
+        <v>4.406937868000009</v>
       </c>
       <c r="E5">
-        <v>-0.8378060000000016</v>
+        <v>-0.9270503073600147</v>
       </c>
       <c r="F5">
-        <v>0.83421</v>
+        <v>-1.094513995824941</v>
       </c>
       <c r="G5">
-        <v>0.221825</v>
+        <v>0.8111224016758237</v>
       </c>
       <c r="H5">
-        <v>0.293170144</v>
+        <v>0.2042029355184761</v>
       </c>
       <c r="I5">
-        <v>0.02582100000000004</v>
+        <v>0.2916775895284789</v>
+      </c>
+      <c r="J5">
+        <v>0.02378856251721495</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,25 +629,28 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>3.116937868000016</v>
+        <v>-1.050112999999999</v>
       </c>
       <c r="C6">
-        <v>1.926908000000002</v>
+        <v>3.863347868000014</v>
       </c>
       <c r="D6">
-        <v>-0.193873096645363</v>
+        <v>0.21590799999999</v>
       </c>
       <c r="E6">
-        <v>0.8339223308394457</v>
+        <v>-0.8378060000000016</v>
       </c>
       <c r="F6">
-        <v>0.2261502350996976</v>
+        <v>0.83421</v>
       </c>
       <c r="G6">
-        <v>0.2908733921654398</v>
+        <v>0.221825</v>
       </c>
       <c r="H6">
-        <v>0.02496324243013681</v>
+        <v>0.293170144</v>
+      </c>
+      <c r="I6">
+        <v>0.02582100000000004</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,34 +658,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.11309199999999</v>
+        <v>3.116937868000016</v>
       </c>
       <c r="C7">
-        <v>-0.3942660000000171</v>
+        <v>1.926908000000002</v>
       </c>
       <c r="D7">
-        <v>2.00719</v>
+        <v>-0.193873096645363</v>
       </c>
       <c r="E7">
-        <v>0.934595</v>
+        <v>0.8339223308394457</v>
       </c>
       <c r="F7">
-        <v>0.570270144</v>
+        <v>0.2261502350996976</v>
       </c>
       <c r="G7">
-        <v>0.08985100000000001</v>
+        <v>0.2908733921654398</v>
       </c>
       <c r="H7">
-        <v>0.695306</v>
-      </c>
-      <c r="I7">
-        <v>0.585233047</v>
-      </c>
-      <c r="J7">
-        <v>0.19144</v>
-      </c>
-      <c r="K7">
-        <v>0.339618</v>
+        <v>0.02496324243013681</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,31 +684,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-2.234265999999992</v>
+        <v>-0.11309199999999</v>
       </c>
       <c r="C8">
-        <v>0.33719</v>
+        <v>-0.3942660000000171</v>
       </c>
       <c r="D8">
-        <v>2.104595</v>
+        <v>2.00719</v>
       </c>
       <c r="E8">
-        <v>1.610270144</v>
+        <v>0.934595</v>
       </c>
       <c r="F8">
-        <v>0.4098510000000001</v>
+        <v>0.570270144</v>
       </c>
       <c r="G8">
-        <v>0.965306</v>
+        <v>0.08985100000000001</v>
       </c>
       <c r="H8">
-        <v>0.6552330470000001</v>
+        <v>0.695306</v>
       </c>
       <c r="I8">
-        <v>0.24144</v>
+        <v>0.585233047</v>
       </c>
       <c r="J8">
-        <v>0.389618</v>
+        <v>0.19144</v>
+      </c>
+      <c r="K8">
+        <v>0.339618</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -722,28 +719,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.8124755479103435</v>
+        <v>-2.234265999999992</v>
       </c>
       <c r="C9">
-        <v>0.7569931685675987</v>
+        <v>0.33719</v>
       </c>
       <c r="D9">
-        <v>0.956934290006177</v>
+        <v>2.104595</v>
       </c>
       <c r="E9">
-        <v>0.7097368377081471</v>
+        <v>1.610270144</v>
       </c>
       <c r="F9">
-        <v>1.326072562717316</v>
+        <v>0.4098510000000001</v>
       </c>
       <c r="G9">
-        <v>1.072060220406795</v>
+        <v>0.965306</v>
       </c>
       <c r="H9">
-        <v>0.4649766100679694</v>
+        <v>0.6552330470000001</v>
       </c>
       <c r="I9">
-        <v>0.4756672607517462</v>
+        <v>0.24144</v>
+      </c>
+      <c r="J9">
+        <v>0.389618</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,25 +751,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.144595</v>
+        <v>0.8124755479103435</v>
       </c>
       <c r="C10">
-        <v>1.030753752733242</v>
+        <v>0.7569931685675987</v>
       </c>
       <c r="D10">
-        <v>0.9998509999999999</v>
+        <v>0.956934290006177</v>
       </c>
       <c r="E10">
-        <v>1.475306</v>
+        <v>0.7097368377081471</v>
       </c>
       <c r="F10">
-        <v>1.174980403390541</v>
+        <v>1.326072562717316</v>
       </c>
       <c r="G10">
-        <v>0.599041205077456</v>
+        <v>1.072060220406795</v>
       </c>
       <c r="H10">
-        <v>0.5496179999999999</v>
+        <v>0.4649766100679694</v>
+      </c>
+      <c r="I10">
+        <v>0.4756672607517462</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -777,34 +780,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.09972985600000001</v>
+        <v>0.144595</v>
       </c>
       <c r="C11">
-        <v>-0.580149</v>
+        <v>1.030753752733242</v>
       </c>
       <c r="D11">
-        <v>0.035306</v>
+        <v>0.9998509999999999</v>
       </c>
       <c r="E11">
-        <v>0.335233047</v>
+        <v>1.475306</v>
       </c>
       <c r="F11">
-        <v>0.46144</v>
+        <v>1.174980403390541</v>
       </c>
       <c r="G11">
-        <v>0.609618</v>
+        <v>0.599041205077456</v>
       </c>
       <c r="H11">
-        <v>0.797064</v>
-      </c>
-      <c r="I11">
-        <v>0.266401</v>
-      </c>
-      <c r="J11">
-        <v>0.506762</v>
-      </c>
-      <c r="K11">
-        <v>0.314787</v>
+        <v>0.5496179999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,31 +806,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.6901489999999999</v>
+        <v>-0.09972985600000001</v>
       </c>
       <c r="C12">
-        <v>0.04530600000000001</v>
+        <v>-0.580149</v>
       </c>
       <c r="D12">
-        <v>0.4047646754159873</v>
+        <v>0.035306</v>
       </c>
       <c r="E12">
-        <v>0.5331804895479529</v>
+        <v>0.335233047</v>
       </c>
       <c r="F12">
-        <v>0.631701469095723</v>
+        <v>0.46144</v>
       </c>
       <c r="G12">
-        <v>0.7063612035713893</v>
+        <v>0.609618</v>
       </c>
       <c r="H12">
-        <v>0.1521177307479057</v>
+        <v>0.797064</v>
       </c>
       <c r="I12">
-        <v>0.3661347917628917</v>
+        <v>0.266401</v>
       </c>
       <c r="J12">
-        <v>0.139289720332008</v>
+        <v>0.506762</v>
+      </c>
+      <c r="K12">
+        <v>0.314787</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -844,28 +841,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.2274280425847082</v>
+        <v>-0.6901489999999999</v>
       </c>
       <c r="C13">
-        <v>0.4000973127747729</v>
+        <v>0.04530600000000001</v>
       </c>
       <c r="D13">
-        <v>0.4367846893433346</v>
+        <v>0.4047646754159873</v>
       </c>
       <c r="E13">
-        <v>0.69099182150105</v>
+        <v>0.5331804895479529</v>
       </c>
       <c r="F13">
-        <v>0.8134599846508896</v>
+        <v>0.631701469095723</v>
       </c>
       <c r="G13">
-        <v>0.2121117569248291</v>
+        <v>0.7063612035713893</v>
       </c>
       <c r="H13">
-        <v>0.3549518502275533</v>
+        <v>0.1521177307479057</v>
       </c>
       <c r="I13">
-        <v>0.1254188627505419</v>
+        <v>0.3661347917628917</v>
+      </c>
+      <c r="J13">
+        <v>0.139289720332008</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -873,25 +873,28 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.4558808801785803</v>
+        <v>0.2274280425847082</v>
       </c>
       <c r="C14">
-        <v>0.16144</v>
+        <v>0.4000973127747729</v>
       </c>
       <c r="D14">
-        <v>0.5496179999999999</v>
+        <v>0.4367846893433346</v>
       </c>
       <c r="E14">
-        <v>0.787064</v>
+        <v>0.69099182150105</v>
       </c>
       <c r="F14">
-        <v>0.246401</v>
+        <v>0.8134599846508896</v>
       </c>
       <c r="G14">
-        <v>0.396762</v>
+        <v>0.2121117569248291</v>
       </c>
       <c r="H14">
-        <v>0.224787</v>
+        <v>0.3549518502275533</v>
+      </c>
+      <c r="I14">
+        <v>0.1254188627505419</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -899,28 +902,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.19856</v>
+        <v>0.4558808801785803</v>
       </c>
       <c r="C15">
-        <v>0.449618</v>
+        <v>0.16144</v>
       </c>
       <c r="D15">
-        <v>0.767064</v>
+        <v>0.5496179999999999</v>
       </c>
       <c r="E15">
-        <v>0.3475486945050384</v>
+        <v>0.787064</v>
       </c>
       <c r="F15">
-        <v>0.5699428943414688</v>
+        <v>0.246401</v>
       </c>
       <c r="G15">
-        <v>0.2754705540682556</v>
+        <v>0.396762</v>
       </c>
       <c r="H15">
-        <v>0.5324131665228617</v>
-      </c>
-      <c r="I15">
-        <v>-0.1528445176123187</v>
+        <v>0.224787</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -928,117 +928,146 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.173618</v>
+        <v>-0.19856</v>
       </c>
       <c r="C16">
-        <v>0.5810353448086394</v>
+        <v>0.449618</v>
       </c>
       <c r="D16">
-        <v>0.1866374482404346</v>
+        <v>0.767064</v>
       </c>
       <c r="E16">
-        <v>0.5059365998095615</v>
+        <v>0.3475486945050384</v>
       </c>
       <c r="F16">
-        <v>0.3349163578968364</v>
+        <v>0.5699428943414688</v>
       </c>
       <c r="G16">
-        <v>0.6001964824356247</v>
+        <v>0.2754705540682556</v>
       </c>
       <c r="H16">
-        <v>-0.11168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.5324131665228617</v>
+      </c>
+      <c r="I16">
+        <v>-0.1528445176123187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.2045539595364962</v>
+        <v>0.173618</v>
       </c>
       <c r="C17">
-        <v>0.0007588612482883894</v>
+        <v>0.5810353448086394</v>
       </c>
       <c r="D17">
-        <v>0.5781185490928664</v>
+        <v>0.1866374482404346</v>
       </c>
       <c r="E17">
-        <v>0.4267792642991344</v>
+        <v>0.5059365998095615</v>
       </c>
       <c r="F17">
-        <v>0.6444535404671154</v>
+        <v>0.3349163578968364</v>
       </c>
       <c r="G17">
-        <v>-0.06114726039798357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>0.6001964824356247</v>
+      </c>
+      <c r="H17">
+        <v>-0.11168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.04465352195753017</v>
+        <v>0.2045539595364962</v>
       </c>
       <c r="C18">
-        <v>0.496762</v>
+        <v>0.0007588612482883894</v>
       </c>
       <c r="D18">
-        <v>0.414787</v>
+        <v>0.5781185490928664</v>
       </c>
       <c r="E18">
-        <v>0.66065</v>
+        <v>0.4267792642991344</v>
       </c>
       <c r="F18">
-        <v>-0.02167999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.6444535404671154</v>
+      </c>
+      <c r="G18">
+        <v>-0.06114726039798357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.01958647477505627</v>
+        <v>0.04465352195753017</v>
       </c>
       <c r="C19">
-        <v>0.104787</v>
+        <v>0.496762</v>
       </c>
       <c r="D19">
-        <v>0.5136499999999999</v>
+        <v>0.414787</v>
       </c>
       <c r="E19">
-        <v>0.008319999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.66065</v>
+      </c>
+      <c r="F19">
+        <v>-0.02167999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0.1090167805489477</v>
+        <v>0.01958647477505627</v>
       </c>
       <c r="C20">
-        <v>0.4004141087852884</v>
+        <v>0.104787</v>
       </c>
       <c r="D20">
-        <v>-0.26120627084553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.5136499999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.008319999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.4400871574146135</v>
+        <v>0.1090167805489477</v>
       </c>
       <c r="C21">
-        <v>-0.2108396205190206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.4004141087852884</v>
+      </c>
+      <c r="D21">
+        <v>-0.26120627084553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22">
+        <v>0.4400871574146135</v>
+      </c>
+      <c r="C22">
+        <v>-0.2108396205190206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
         <v>-0.3645011658169567</v>
       </c>
     </row>

--- a/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_T55.xlsx
+++ b/0_1_Output_Data/5_ifo_qoq_error_series_matched_to_ifoCAST/ifo_qoq_matched_errors_T55.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Q0</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>2025-05-23 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-08-22 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -951,8 +954,11 @@
       <c r="I16">
         <v>-0.1528445176123187</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16">
+        <v>0.4917405036779461</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -977,8 +983,11 @@
       <c r="H17">
         <v>-0.11168</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0.516691</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1000,8 +1009,11 @@
       <c r="G18">
         <v>-0.06114726039798357</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18">
+        <v>0.5854892760018804</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -1020,8 +1032,11 @@
       <c r="F19">
         <v>-0.02167999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="G19">
+        <v>0.5966910000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1037,8 +1052,11 @@
       <c r="E20">
         <v>0.008319999999999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="F20">
+        <v>0.7243405795507702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1051,8 +1069,11 @@
       <c r="D21">
         <v>-0.26120627084553</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="E21">
+        <v>0.3855876743764388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1062,13 +1083,27 @@
       <c r="C22">
         <v>-0.2108396205190206</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="D22">
+        <v>0.4228473307127136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23">
         <v>-0.3645011658169567</v>
+      </c>
+      <c r="C23">
+        <v>0.3721674801491877</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>0.3726405356205764</v>
       </c>
     </row>
   </sheetData>
